--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Y.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Y.RS0001.a205.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'X': 300.0 ton, 2.25 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Y': 350.0 ton, 2.25 COP liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>c9f3bf45-6502-4409-b94e-461e2b3b4195</t>
+          <t>8b0049db-1d50-48c3-b73d-939dde8a16fc</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'X' for Performance Rating Method (PRM)</t>
+          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'Y' for Performance Rating Method (PRM)</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>560931.8631656872</v>
+        <v>602134.54035614</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122172.543446486</v>
+        <v>159421.3050968917</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>264634.8868574324</v>
+        <v>303191.1415080249</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>386807.4303039184</v>
+        <v>462612.4466049166</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4301437461164</v>
+        <v>278.4051361846592</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2307881795728</v>
+        <v>287.2635229043144</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>15000</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>176582.0288614214</v>
+        <v>215180.8544369632</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>529269.7737148647</v>
+        <v>606382.2830160498</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>705851.8025762861</v>
+        <v>821563.1374530129</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.8213986033438</v>
+        <v>279.7713834804296</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.3055300359493</v>
+        <v>288.2999555370421</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>15000</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>247819.3101392778</v>
+        <v>302864.1950674814</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>793904.6605722972</v>
+        <v>909573.4245240747</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1041723.970711575</v>
+        <v>1212437.619591556</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.2126534605712</v>
+        <v>281.1376307762</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.436958479322</v>
+        <v>289.4285647831525</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15000</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>335884.3872800552</v>
+        <v>422471.3269884464</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1058539.547429729</v>
+        <v>1212764.5660321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1394423.934709785</v>
+        <v>1635235.893020546</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.6039083177986</v>
+        <v>282.5038780719703</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6250735096907</v>
+        <v>290.6493506426458</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>15000</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>143497.7552013323</v>
+        <v>186451.9073011988</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>253839.436998804</v>
+        <v>296784.0163542114</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>397337.1922001363</v>
+        <v>483235.9236554103</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3733892409559</v>
+        <v>278.3762642414636</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3451218565502</v>
+        <v>296.4021371241554</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>15000</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,19 +2370,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207404.4137552878</v>
+        <v>251665.7400344897</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>507678.873997608</v>
+        <v>593568.0327084229</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>715083.2877528957</v>
+        <v>845233.7727429125</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.707889593023</v>
+        <v>279.7136395940382</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4193198114475</v>
+        <v>297.45110768257</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15000</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>291076.1591544158</v>
+        <v>354216.1870350617</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>761518.310996412</v>
+        <v>890352.0490626344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1052594.470150828</v>
+        <v>1244568.236097696</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.04238994509</v>
+        <v>281.0510149466128</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.560337205402</v>
+        <v>298.6082695167503</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>15000</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>394512.9913987167</v>
+        <v>494103.248302915</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1015357.747995216</v>
+        <v>1187136.065416846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1409870.739393933</v>
+        <v>1681239.313719761</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.376890297157</v>
+        <v>282.3883902991875</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.7681740384137</v>
+        <v>299.8736226266965</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15000</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>166196.2618320783</v>
+        <v>208199.8475653693</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>236050.7857955941</v>
+        <v>284599.8987853088</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>402247.0476276724</v>
+        <v>492799.746350678</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.2798696461516</v>
+        <v>278.3213598745448</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.4401783446639</v>
+        <v>305.5085279262795</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15000</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>240211.6897594678</v>
+        <v>281020.2881323365</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>472101.5715911883</v>
+        <v>569199.7975706175</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>712313.261350656</v>
+        <v>850220.0857029541</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.5208504034144</v>
+        <v>279.6038308602008</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.4917922335296</v>
+        <v>306.5475728870672</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15000</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,19 +2590,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>337118.650337283</v>
+        <v>395532.3236610947</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>708152.3573867824</v>
+        <v>853799.6963559263</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1045271.007724065</v>
+        <v>1249332.020017021</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.7618311606771</v>
+        <v>280.8863018458567</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.6210445512443</v>
+        <v>307.7078181179088</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>15000</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>456917.1435655238</v>
+        <v>551735.9541516434</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>944203.1431823765</v>
+        <v>1138399.595141235</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1401120.2867479</v>
+        <v>1690135.549292878</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.0028119179398</v>
+        <v>282.1687728315126</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.827935297808</v>
+        <v>308.9892636188043</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15000</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>185482.9081018149</v>
+        <v>222842.398514731</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>211268.9332478026</v>
+        <v>266638.788801317</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>396751.8413496175</v>
+        <v>489481.187316048</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.1495849617034</v>
+        <v>278.2404230839031</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.4999633822516</v>
+        <v>314.577553037968</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>15000</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>268087.6349773424</v>
+        <v>300784.2501856233</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>422537.8664956052</v>
+        <v>533277.577602634</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>690625.5014729477</v>
+        <v>834061.8277882573</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.260281034518</v>
+        <v>279.4419572789173</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.4998798005982</v>
+        <v>315.5825092096817</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>15000</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,19 +2766,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>376240.3976516454</v>
+        <v>423349.8377901989</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>633806.7997434078</v>
+        <v>799916.366403951</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1010047.197395053</v>
+        <v>1223266.20419415</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.3709771073325</v>
+        <v>280.6434914739315</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5867243922319</v>
+        <v>316.7176087892491</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>15000</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,19 +2810,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>509941.196124724</v>
+        <v>590539.1613284575</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>845075.7329912103</v>
+        <v>1066555.155205268</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1355016.929115934</v>
+        <v>1657094.316533725</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.481673180147</v>
+        <v>281.8450256689457</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.7604971571526</v>
+        <v>317.9828517766704</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>15000</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>128684.8769529981</v>
+        <v>156935.7400140418</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>294361.2036295312</v>
+        <v>326700.584218066</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>423046.0805825293</v>
+        <v>483636.3242321078</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.478688955275</v>
+        <v>282.4031767526558</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.352862717342</v>
+        <v>287.3242271553295</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15000</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185994.6270668916</v>
+        <v>211825.9325966153</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>588722.4072590624</v>
+        <v>653401.168436132</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>774717.0343259539</v>
+        <v>865227.1010327473</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>284.0296001327722</v>
+        <v>283.8785757275338</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.5375113947907</v>
+        <v>288.4260306718227</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15000</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>261029.1685203276</v>
+        <v>298142.1871297866</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>883083.6108885936</v>
+        <v>980101.7526541981</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1144112.779408921</v>
+        <v>1278243.939783985</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.5805113102694</v>
+        <v>285.3539747024117</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.7818683034565</v>
+        <v>289.6185736602103</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>15000</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>353788.5013133061</v>
+        <v>415884.5036135559</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1177444.814518125</v>
+        <v>1306802.336872264</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1531233.315831431</v>
+        <v>1722686.84048582</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>287.1314224877666</v>
+        <v>286.8293736772897</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>291.0859334433393</v>
+        <v>290.9018561204924</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15000</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>150616.682114355</v>
+        <v>185371.6251064837</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>284664.0648960057</v>
+        <v>322226.3625414817</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>435280.7470103607</v>
+        <v>507597.9876479654</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.4275973009873</v>
+        <v>282.3829709054859</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.4733968835266</v>
+        <v>296.4727317089984</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>217693.7514587984</v>
+        <v>250207.6159427909</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>569328.1297920113</v>
+        <v>644452.7250829635</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>787021.8812508096</v>
+        <v>894660.3410257543</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.9274168241967</v>
+        <v>283.8381640331941</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.6625211948641</v>
+        <v>297.5943323317298</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15000</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,19 +3118,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>305516.4540582374</v>
+        <v>352163.8967395502</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>853992.194688017</v>
+        <v>966679.0876244452</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1159508.648746254</v>
+        <v>1318842.984363995</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.4272363474062</v>
+        <v>285.2933571609022</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.9217798591566</v>
+        <v>298.823497381671</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>15000</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>414084.7899126723</v>
+        <v>491240.4674967618</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>1138656.259584023</v>
+        <v>1288905.450165927</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1552741.049496695</v>
+        <v>1780145.917662689</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.9270558706156</v>
+        <v>286.7485502886103</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.251172876404</v>
+        <v>300.1602268588222</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15000</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>175832.5997173693</v>
+        <v>209361.5092409085</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>267973.7248178986</v>
+        <v>311975.1484498081</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>443806.3245352679</v>
+        <v>521336.6576907166</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3396603219826</v>
+        <v>282.3366758221811</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5811298926654</v>
+        <v>305.5914866464745</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>15000</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>254139.5662411767</v>
+        <v>282588.2551726094</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>535947.4496357973</v>
+        <v>623950.2968996161</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>790087.015876974</v>
+        <v>906538.5520722255</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7515428661873</v>
+        <v>283.7455738665844</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7555680234393</v>
+        <v>306.7112944558686</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>15000</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>356665.3548556172</v>
+        <v>397739.2164480348</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>803921.174453696</v>
+        <v>935925.4453494241</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1160586.529309313</v>
+        <v>1333664.661797459</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1634254103921</v>
+        <v>285.1544719109877</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>308.012146189326</v>
+        <v>307.9529787784092</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>15000</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>483409.9655606908</v>
+        <v>554814.3930671847</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>1071894.899271595</v>
+        <v>1247900.593799232</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1555304.864832285</v>
+        <v>1802714.986866417</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5753079545968</v>
+        <v>286.563369955391</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3508643903253</v>
+        <v>309.3165396140962</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>15000</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>199908.8075765517</v>
+        <v>227217.962818381</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>244290.18339521</v>
+        <v>295946.9419430454</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>444198.9909717616</v>
+        <v>523164.9047614264</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2148780182609</v>
+        <v>282.2642915027413</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.6614041316233</v>
+        <v>314.6757903030871</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>15000</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>288938.1020752607</v>
+        <v>306690.2215671212</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>488580.36679042</v>
+        <v>591893.8838860908</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>777518.4688656807</v>
+        <v>898584.105453212</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5019782587441</v>
+        <v>283.6008052277048</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7955364603287</v>
+        <v>315.7706859484084</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>15000</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>405502.4262148289</v>
+        <v>431662.4140797075</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>732870.5501856301</v>
+        <v>887840.8258291362</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1138372.976400459</v>
+        <v>1319503.239908844</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.7890784992272</v>
+        <v>284.9373189526683</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>317.0233577852034</v>
+        <v>316.9982803988218</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>15000</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,19 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>549601.7799952565</v>
+        <v>602134.54035614</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>977160.7335808401</v>
+        <v>1183787.767772182</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1526762.513576096</v>
+        <v>1785922.308128322</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.0761787397103</v>
+        <v>286.2738326776318</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3448681062474</v>
+        <v>318.3585736543274</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>15000</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>133732.191949501</v>
+        <v>155825.8978765348</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>308522.3508732346</v>
+        <v>337262.9864618519</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>442254.5428227355</v>
+        <v>493088.8843383866</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.4452278739197</v>
+        <v>286.3426133000013</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.4175688841336</v>
+        <v>287.3515204354562</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>15000</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>193289.7614501382</v>
+        <v>210327.9096109562</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>617044.7017464691</v>
+        <v>674525.9729237037</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>810334.4631966073</v>
+        <v>884853.8825346599</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>288.0737890811728</v>
+        <v>287.868559933336</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.6574932686322</v>
+        <v>288.4827009536821</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>15000</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>271267.3291184726</v>
+        <v>296033.7396708742</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>925567.0526197037</v>
+        <v>1011788.959385556</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1196834.381738176</v>
+        <v>1307822.69905643</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.7023502884259</v>
+        <v>289.3945065666707</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.9594677776453</v>
+        <v>289.7039792385451</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>15000</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>367664.8949545041</v>
+        <v>412943.3880562888</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>1234089.403492938</v>
+        <v>1349051.945847407</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1601754.298447442</v>
+        <v>1761995.333903696</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>291.3309114956789</v>
+        <v>290.9204532000053</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.3234924111732</v>
+        <v>291.0153552900451</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>15000</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>154067.4344710331</v>
+        <v>183908.6012081451</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>299923.523264812</v>
+        <v>334721.6682624966</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>453990.9577358451</v>
+        <v>518630.2694706418</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.399838238351</v>
+        <v>286.3311151039164</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5366501237027</v>
+        <v>296.5047002382405</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>15000</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,19 +3778,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>222681.2947729593</v>
+        <v>248232.8815601131</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>599847.046529624</v>
+        <v>669443.3365249933</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>822528.3413025833</v>
+        <v>917676.2180851065</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.9830098100354</v>
+        <v>287.845563541166</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.7825571836838</v>
+        <v>297.661026035773</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>15000</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,19 +3822,19 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>312516.0878905971</v>
+        <v>349384.4843199524</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>899770.569794436</v>
+        <v>1004165.00478749</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1212286.657685033</v>
+        <v>1353549.489107443</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.5661813817198</v>
+        <v>289.3600119784157</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>299.1002054324652</v>
+        <v>298.9240673208381</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>15000</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>423571.8138239469</v>
+        <v>487363.4094876627</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>1199694.093059248</v>
+        <v>1338886.673049987</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1623265.906883195</v>
+        <v>1826250.082537649</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>291.1493529534042</v>
+        <v>290.8744604156655</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.4895948700471</v>
+        <v>300.2938240934357</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>15000</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,19 +3910,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>178854.18123077</v>
+        <v>208155.8512880983</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>284331.4943118079</v>
+        <v>326403.357648052</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>463185.6755425779</v>
+        <v>534559.2089361503</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.3175344006441</v>
+        <v>286.2934789013484</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6468564819374</v>
+        <v>305.6299254920791</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>15000</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>258506.8076765665</v>
+        <v>280960.9036195233</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>568662.9886236158</v>
+        <v>652806.7152961041</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>827169.7963001824</v>
+        <v>933767.6189156275</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.8184021346216</v>
+        <v>287.7702911360302</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.8813371824282</v>
+        <v>306.7904511841675</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>15000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,19 +3998,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>362794.4426609189</v>
+        <v>395448.7407479227</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>852994.4829354237</v>
+        <v>979210.0729441561</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1215788.925596343</v>
+        <v>1374658.813692079</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.319269868599</v>
+        <v>289.247103370712</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.1993694470201</v>
+        <v>308.0721515345681</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>15000</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,19 +4042,19 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>491717.0861838273</v>
+        <v>551619.3626732965</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1137325.977247232</v>
+        <v>1305613.430592208</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1629043.063431059</v>
+        <v>1857232.793265505</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.8201376025765</v>
+        <v>290.7239156053937</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.6009532757132</v>
+        <v>309.4750265432811</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>15000</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>204029.9430946417</v>
+        <v>227015.5162931959</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>261746.2640142221</v>
+        <v>312308.0546185185</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>465776.2071088638</v>
+        <v>539323.5709117143</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.198316360799</v>
+        <v>286.2297046922975</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.7348214384641</v>
+        <v>314.7229164308119</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>15000</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>294894.583380047</v>
+        <v>306416.9668961682</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>523492.5280284442</v>
+        <v>624616.1092370369</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>818387.1114084912</v>
+        <v>931033.0761332051</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5799660549313</v>
+        <v>287.6427427179284</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.9345935866358</v>
+        <v>315.8653221221236</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>15000</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>413861.8900703955</v>
+        <v>431277.8117591009</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>785238.7920426663</v>
+        <v>936924.1638555554</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1199100.682113062</v>
+        <v>1368201.975614656</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9616157490636</v>
+        <v>289.0557807435592</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.2299861368735</v>
+        <v>317.140308386625</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>15000</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>560931.8631656872</v>
+        <v>601598.0508819937</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>1046985.056056888</v>
+        <v>1249232.218474074</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1607916.919222576</v>
+        <v>1850830.269356068</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3432654431959</v>
+        <v>290.4688187691901</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.6209990891774</v>
+        <v>318.5478752243163</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>15000</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>138370.8576812134</v>
+        <v>157662.9875865054</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>307118.3285885432</v>
+        <v>334878.3482393826</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>445489.1862697566</v>
+        <v>492541.3358258879</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.3293911561493</v>
+        <v>290.2232229442735</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.4284651951333</v>
+        <v>287.3499394463097</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>15000</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>199994.2548085377</v>
+        <v>212807.5438933915</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>614236.6571770863</v>
+        <v>669756.6964787651</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>814230.911985624</v>
+        <v>882564.2403721566</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.953226756743</v>
+        <v>291.7408903329915</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.6706189557426</v>
+        <v>288.4760898510572</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>15000</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>280676.5704191026</v>
+        <v>299523.7919944256</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>921354.9857656294</v>
+        <v>1004635.044718148</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1202031.556184732</v>
+        <v>1304158.836712573</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.5770623573367</v>
+        <v>293.2585577217095</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.9769751258327</v>
+        <v>289.6934002186635</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>15000</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,19 +4394,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>380417.8045129082</v>
+        <v>417811.7318896076</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>1228473.314354173</v>
+        <v>1339513.39295753</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1608891.118867081</v>
+        <v>1757325.124847138</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>295.2008979579305</v>
+        <v>294.7762251104274</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.3475337054038</v>
+        <v>291.0018705491287</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>15000</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>155521.5961623214</v>
+        <v>184083.0124053266</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>299617.8121052235</v>
+        <v>334269.9335172564</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>455139.4082675449</v>
+        <v>518352.945922583</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2897334589209</v>
+        <v>290.2204656110884</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5405326677519</v>
+        <v>296.5038966306008</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>15000</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,19 +4482,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>224783.0666972928</v>
+        <v>248468.2952045445</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>599235.624210447</v>
+        <v>668539.8670345128</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>824018.6909077397</v>
+        <v>917008.1622390572</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.8739113622863</v>
+        <v>291.7353756666212</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.7875955791836</v>
+        <v>297.6590901930169</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>15000</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>315465.7633004725</v>
+        <v>349715.8258982501</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>898853.4363156704</v>
+        <v>1002809.800551769</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1214319.199616143</v>
+        <v>1352525.626450019</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.4580892656516</v>
+        <v>293.250285722154</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>299.1070768068619</v>
+        <v>298.9211004474542</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>15000</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>427569.6859718605</v>
+        <v>487825.6044864434</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>1198471.248420894</v>
+        <v>1337079.734069026</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1626040.934392754</v>
+        <v>1824905.338555469</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>295.0422671690169</v>
+        <v>294.7651957776868</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.4989763507868</v>
+        <v>300.2899273939126</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>15000</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,19 +4614,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>177547.8049089709</v>
+        <v>207052.0184030906</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>285124.0942773222</v>
+        <v>327884.526380041</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>462671.8991862931</v>
+        <v>534936.5447831316</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.2131004064357</v>
+        <v>290.1915269704543</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6451139691188</v>
+        <v>305.6310224327598</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>15000</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,19 +4658,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>256618.6372673055</v>
+        <v>279470.9916958491</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>570248.1885546444</v>
+        <v>655769.0527600819</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>826866.8258219499</v>
+        <v>935240.0444559311</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.7206452573158</v>
+        <v>291.677498385353</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.8803096342829</v>
+        <v>306.7947316242245</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>15000</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,19 +4702,19 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>360144.5405657534</v>
+        <v>393351.709501041</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>855372.2828319665</v>
+        <v>983653.579140123</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1215516.82339772</v>
+        <v>1377005.288641164</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.2281901081959</v>
+        <v>293.1634698002517</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.1984465910668</v>
+        <v>308.0789728950309</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>15000</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>488125.5148043146</v>
+        <v>548694.171818666</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>1140496.377109289</v>
+        <v>1311538.105520164</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1628621.891913603</v>
+        <v>1860232.27733883</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.7357349590759</v>
+        <v>294.6494412151505</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.5995248394703</v>
+        <v>309.4837462451788</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>15000</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>200748.3278385117</v>
+        <v>225153.171532336</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>263637.1751048393</v>
+        <v>315722.1268277364</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>464385.502943351</v>
+        <v>540875.2983600725</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.0994919986936</v>
+        <v>290.1364070223713</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7300895141141</v>
+        <v>314.7274419841741</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>15000</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>290151.5022955164</v>
+        <v>303903.2443002175</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>527274.3502096786</v>
+        <v>631444.2536554729</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>817425.8525051951</v>
+        <v>935347.4979556904</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.4934284418316</v>
+        <v>291.5672584891869</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.9313228662886</v>
+        <v>315.8779049672652</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>15000</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>407205.3401944992</v>
+        <v>427739.7805869615</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>790911.525314518</v>
+        <v>947166.3804832094</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1198116.865509017</v>
+        <v>1374906.161070171</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.8873648849695</v>
+        <v>292.9981099560026</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.2266386630829</v>
+        <v>317.1598608853974</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>15000</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>0.04520614613499604</v>
+        <v>0.05274050382416204</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.07087206811562093</v>
+        <v>0.08268407946822441</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>551909.8415354597</v>
+        <v>596662.780392568</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>1054548.700419357</v>
+        <v>1262888.507310946</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1606458.541954817</v>
+        <v>1859551.287703514</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.2813013281075</v>
+        <v>294.4289614228183</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.6160369044972</v>
+        <v>318.5733097385707</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>15000</v>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Y.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Y.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Y': 350.0 ton, 2.25 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Y': 300.0+ ton, 5.50 COP, 6.15 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>8b0049db-1d50-48c3-b73d-939dde8a16fc</t>
+          <t>e1cea60c-a591-4c7c-8427-8b3b7fafccda</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>602134.54035614</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>159421.3050968917</v>
+        <v>65196.96763690237</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>303191.1415080249</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>462612.4466049166</v>
+        <v>368388.1091449272</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4051361846592</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2635229043144</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>215180.8544369632</v>
+        <v>88000.40367428416</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>606382.2830160498</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>821563.1374530129</v>
+        <v>694382.6866903339</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7713834804296</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2999555370421</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>302864.1950674814</v>
+        <v>123859.3995463161</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>909573.4245240747</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1212437.619591556</v>
+        <v>1033432.824070391</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.1376307762</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.4285647831525</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>422471.3269884464</v>
+        <v>172773.9552529981</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1212764.5660321</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1635235.893020546</v>
+        <v>1385538.521285098</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.5038780719703</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6493506426458</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>186451.9073011988</v>
+        <v>76251.40792045862</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>296784.0163542114</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>483235.9236554103</v>
+        <v>373035.4242746701</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3762642414636</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.4021371241554</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>251665.7400344897</v>
+        <v>102921.2695152225</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>593568.0327084229</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>845233.7727429125</v>
+        <v>696489.3022236454</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7136395940382</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.45110768257</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>354216.1870350617</v>
+        <v>144860.3200717502</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>890352.0490626344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1244568.236097696</v>
+        <v>1035212.369134385</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0510149466128</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6082695167503</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>494103.248302915</v>
+        <v>202068.5595900417</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1187136.065416846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1681239.313719761</v>
+        <v>1389204.625006887</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.3883902991875</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.8736226266965</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>208199.8475653693</v>
+        <v>85145.4497595381</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>284599.8987853088</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>492799.746350678</v>
+        <v>369745.3485448469</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3213598745448</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.5085279262795</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>281020.2881323365</v>
+        <v>114926.1111589918</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>569199.7975706175</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>850220.0857029541</v>
+        <v>684125.9087296093</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6038308602008</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.5475728870672</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>395532.3236610947</v>
+        <v>161756.9752638035</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>853799.6963559263</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1249332.020017021</v>
+        <v>1015556.67161973</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.8863018458567</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.7078181179088</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>551735.9541516434</v>
+        <v>225638.042073973</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1138399.595141235</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1690135.549292878</v>
+        <v>1364037.637215208</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.1687728315126</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>308.9892636188043</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>222842.398514731</v>
+        <v>91133.67021593833</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>266638.788801317</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>489481.187316048</v>
+        <v>357772.4590172553</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2404230839031</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.577553037968</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>300784.2501856233</v>
+        <v>123008.7848868349</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>533277.577602634</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>834061.8277882573</v>
+        <v>656286.3624894689</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4419572789173</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.5825092096817</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>423349.8377901989</v>
+        <v>173133.2311996837</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>799916.366403951</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1223266.20419415</v>
+        <v>973049.5976036347</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6434914739315</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.7176087892491</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>590539.1613284575</v>
+        <v>241507.0091544846</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1066555.155205268</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1657094.316533725</v>
+        <v>1308062.164359753</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8450256689457</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.9828517766704</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>156935.7400140418</v>
+        <v>64180.47046190126</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>326700.584218066</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>483636.3242321078</v>
+        <v>390881.0546799673</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.4031767526558</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.3242271553295</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211825.9325966153</v>
+        <v>86628.37419229893</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>653401.168436132</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>865227.1010327473</v>
+        <v>740029.542628431</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.8785757275338</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.4260306718227</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>298142.1871297866</v>
+        <v>121928.2862706597</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>980101.7526541981</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1278243.939783985</v>
+        <v>1102030.038924858</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.3539747024117</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.6185736602103</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>415884.5036135559</v>
+        <v>170080.2066969835</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1306802.336872264</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1722686.84048582</v>
+        <v>1476882.543569247</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.8293736772897</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.9018561204924</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>185371.6251064837</v>
+        <v>75809.61550604602</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>322226.3625414817</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>507597.9876479654</v>
+        <v>398035.9780475277</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3829709054859</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.4727317089984</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>250207.6159427909</v>
+        <v>102324.9548058473</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>644452.7250829635</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>894660.3410257543</v>
+        <v>746777.6798888107</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8381640331941</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.5943323317298</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>352163.8967395502</v>
+        <v>144021.0150372276</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>966679.0876244452</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1318842.984363995</v>
+        <v>1110700.102661673</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2933571609022</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.823497381671</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>491240.4674967618</v>
+        <v>200897.7962001869</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1288905.450165927</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>1780145.917662689</v>
+        <v>1489803.246366114</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.7485502886103</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.1602268588222</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>209361.5092409085</v>
+        <v>85620.52314210216</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>311975.1484498081</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>521336.6576907166</v>
+        <v>397595.6715919102</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3366758221811</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5914866464745</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>282588.2551726094</v>
+        <v>115567.3472617716</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>623950.2968996161</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>906538.5520722255</v>
+        <v>739517.6441613877</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7455738665844</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7112944558686</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>397739.2164480348</v>
+        <v>162659.5065629972</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>935925.4453494241</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1333664.661797459</v>
+        <v>1098584.951912421</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1544719109877</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9529787784092</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>554814.3930671847</v>
+        <v>226897.0010457789</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1247900.593799232</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>1802714.986866417</v>
+        <v>1474797.594845011</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.563369955391</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3165396140962</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>227217.962818381</v>
+        <v>92923.10183629089</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>295946.9419430454</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>523164.9047614264</v>
+        <v>388870.0437793363</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2642915027413</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.6757903030871</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>306690.2215671212</v>
+        <v>125424.0920804999</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>591893.8838860908</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>898584.105453212</v>
+        <v>717317.9759665907</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.6008052277048</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7706859484084</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>431662.4140797075</v>
+        <v>176532.7440000399</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>887840.8258291362</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1319503.239908844</v>
+        <v>1064373.569829176</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.9373189526683</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9982803988218</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>602134.54035614</v>
+        <v>246249.0575949108</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1183787.767772182</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1785922.308128322</v>
+        <v>1430036.825367093</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.2738326776318</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3585736543274</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>155825.8978765348</v>
+        <v>63726.58920759124</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>337262.9864618519</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>493088.8843383866</v>
+        <v>400989.5756694431</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.3426133000013</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.3515204354562</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>210327.9096109562</v>
+        <v>86015.74242356519</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>674525.9729237037</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>884853.8825346599</v>
+        <v>760541.7153472689</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.868559933336</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.4827009536821</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>296033.7396708742</v>
+        <v>121066.0151917767</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1011788.959385556</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1307822.69905643</v>
+        <v>1132854.974577332</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.3945065666707</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.7039792385451</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>412943.3880562888</v>
+        <v>168877.4075122259</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1349051.945847407</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>1761995.333903696</v>
+        <v>1517929.353359633</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.9204532000053</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>291.0153552900451</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>183908.6012081451</v>
+        <v>75211.29697080368</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>334721.6682624966</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>518630.2694706418</v>
+        <v>409932.9652333003</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3311151039164</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.5047002382405</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>248232.8815601131</v>
+        <v>101517.3670523743</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>669443.3365249933</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>917676.2180851065</v>
+        <v>770960.7035773676</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.845563541166</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.661026035773</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>349384.4843199524</v>
+        <v>142884.3459987952</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1004165.00478749</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1353549.489107443</v>
+        <v>1147049.350786285</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.3600119784157</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.9240673208381</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>487363.4094876627</v>
+        <v>199312.233810066</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1338886.673049987</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>1826250.082537649</v>
+        <v>1538198.906860053</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.8744604156655</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.2938240934357</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>208155.8512880983</v>
+        <v>85127.45703351167</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>326403.357648052</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>534559.2089361503</v>
+        <v>411530.8146815637</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2934789013484</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.6299254920791</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>280960.9036195233</v>
+        <v>114901.8252571943</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>652806.7152961041</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>933767.6189156275</v>
+        <v>767708.5405532983</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7702911360302</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.7904511841675</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>395448.7407479227</v>
+        <v>161722.7931795347</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>979210.0729441561</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1374658.813692079</v>
+        <v>1140932.866123691</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.247103370712</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0721515345681</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>551619.3626732965</v>
+        <v>225590.3608005328</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1305613.430592208</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>1857232.793265505</v>
+        <v>1531203.791392741</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.7239156053937</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.4750265432811</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>227015.5162931959</v>
+        <v>92840.30926636007</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>312308.0546185185</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>539323.5709117143</v>
+        <v>405148.3638848785</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2297046922975</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.7229164308119</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>306416.9668961682</v>
+        <v>125312.3417976383</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>624616.1092370369</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>931033.0761332051</v>
+        <v>749928.4510346751</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.6427427179284</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.8653221221236</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>431277.8117591009</v>
+        <v>176375.4569609303</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>936924.1638555554</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1368201.975614656</v>
+        <v>1113299.620816486</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>289.0557807435592</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.140308386625</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>601598.0508819937</v>
+        <v>246029.6547562363</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1249232.218474074</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1850830.269356068</v>
+        <v>1495261.87323031</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.4688187691901</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.5478752243163</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>157662.9875865054</v>
+        <v>64477.88576920352</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>334878.3482393826</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>492541.3358258879</v>
+        <v>399356.2340085861</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2232229442735</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.3499394463097</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>212807.5438933915</v>
+        <v>87029.81413728645</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>669756.6964787651</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>882564.2403721566</v>
+        <v>756786.5106160515</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.7408903329915</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.4760898510572</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>299523.7919944256</v>
+        <v>122493.3076621989</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1004635.044718148</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1304158.836712573</v>
+        <v>1127128.352380347</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.2585577217095</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.6934002186635</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>417811.7318896076</v>
+        <v>170868.3663439409</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1339513.39295753</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>1757325.124847138</v>
+        <v>1510381.759301471</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.7762251104274</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>291.0018705491287</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>184083.0124053266</v>
+        <v>75282.62420759452</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>334269.9335172564</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>518352.945922583</v>
+        <v>409552.557724851</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2204656110884</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.5038966306008</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>248468.2952045445</v>
+        <v>101613.6418617416</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>668539.8670345128</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>917008.1622390572</v>
+        <v>770153.5088962544</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.7353756666212</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.6590901930169</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>349715.8258982501</v>
+        <v>143019.851514472</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1002809.800551769</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1352525.626450019</v>
+        <v>1145829.652066241</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.250285722154</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.9211004474542</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>487825.6044864434</v>
+        <v>199501.2531657859</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1337079.734069026</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1824905.338555469</v>
+        <v>1536580.987234812</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.7651957776868</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.2899273939126</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>207052.0184030906</v>
+        <v>84676.03332426115</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>327884.526380041</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>534936.5447831316</v>
+        <v>412560.5597043021</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1915269704543</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.6310224327598</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>279470.9916958491</v>
+        <v>114292.510589932</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>655769.0527600819</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>935240.0444559311</v>
+        <v>770061.5633500139</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.677498385353</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.7947316242245</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>393351.709501041</v>
+        <v>160865.1908769225</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>983653.579140123</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1377005.288641164</v>
+        <v>1144518.770017046</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1634698002517</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0789728950309</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>548694.171818666</v>
+        <v>224394.0741852325</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1311538.105520164</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1860232.27733883</v>
+        <v>1535932.179705397</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.6494412151505</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4837462451788</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>225153.171532336</v>
+        <v>92078.684394272</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>315722.1268277364</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>540875.2983600725</v>
+        <v>407800.8112220084</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1364070223713</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.7274419841741</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>303903.2443002175</v>
+        <v>124284.3293206563</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>631444.2536554729</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>935347.4979556904</v>
+        <v>755728.5829761291</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5672584891869</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8779049672652</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>427739.7805869615</v>
+        <v>174928.5430513489</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>947166.3804832094</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1374906.161070171</v>
+        <v>1122094.923534558</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9981099560026</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1598608853974</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.08268407946822441</v>
+        <v>0.06764278355937751</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>596662.780392568</v>
+        <v>244011.3255863497</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1262888.507310946</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1859551.287703514</v>
+        <v>1506899.832897295</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.4289614228183</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5733097385707</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.05274050382416204</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06764278355937751</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06764278355937751</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06764278355937751</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06764278355937751</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>